--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_20-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_20-48.xlsx
@@ -3051,7 +3051,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
